--- a/NformTester/NformTester/Keywordscripts/600.20.20.60_ConfigureReaddataActionDurationAndSamplingInterval.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.60_ConfigureReaddataActionDurationAndSamplingInterval.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-2415" yWindow="15" windowWidth="15480" windowHeight="11655"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7500" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7500" uniqueCount="829">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3737,6 +3737,10 @@
   </si>
   <si>
     <t>"{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4713,7 +4717,7 @@
   <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4846,7 +4850,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>788</v>
+        <v>828</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>197</v>

--- a/NformTester/NformTester/Keywordscripts/600.20.20.60_ConfigureReaddataActionDurationAndSamplingInterval.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.60_ConfigureReaddataActionDurationAndSamplingInterval.xlsx
@@ -3705,10 +3705,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_1$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Zoe</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3741,6 +3737,10 @@
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_ACTION_SearchStart_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4716,8 +4716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4809,7 +4809,7 @@
         <v>767</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C3" s="8">
         <v>2</v>
@@ -4850,7 +4850,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>197</v>
@@ -5337,7 +5337,7 @@
         <v>13</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="3"/>
@@ -5544,7 +5544,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="8"/>
@@ -5748,10 +5748,10 @@
         <v>7</v>
       </c>
       <c r="H36" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>822</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>823</v>
       </c>
       <c r="J36" s="8" t="b">
         <v>1</v>
@@ -5779,7 +5779,7 @@
         <v>3</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -5806,10 +5806,10 @@
         <v>7</v>
       </c>
       <c r="H38" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="I38" s="6" t="s">
         <v>822</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>823</v>
       </c>
       <c r="J38" s="8" t="b">
         <v>1</v>
@@ -5898,7 +5898,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -6076,10 +6076,10 @@
         <v>7</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J49" s="8">
         <v>5</v>
@@ -6106,10 +6106,10 @@
         <v>7</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J50" s="8">
         <v>30</v>
@@ -6162,10 +6162,10 @@
         <v>7</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J52" s="8">
         <v>0</v>
@@ -6218,10 +6218,10 @@
         <v>7</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J54" s="8">
         <v>60</v>
@@ -6322,10 +6322,10 @@
         <v>7</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J58" s="8">
         <v>10</v>
@@ -6426,10 +6426,10 @@
         <v>7</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J62" s="8">
         <v>300</v>
@@ -6516,7 +6516,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
